--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H2">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I2">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J2">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N2">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P2">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q2">
-        <v>1624.258528860928</v>
+        <v>3.35874519187</v>
       </c>
       <c r="R2">
-        <v>14618.32675974836</v>
+        <v>30.22870672683</v>
       </c>
       <c r="S2">
-        <v>0.287100568993339</v>
+        <v>0.001035192340233041</v>
       </c>
       <c r="T2">
-        <v>0.2871005689933389</v>
+        <v>0.001035192340233041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H3">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I3">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J3">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.155386</v>
       </c>
       <c r="O3">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P3">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q3">
-        <v>9.858362497174445</v>
+        <v>20.06134839538</v>
       </c>
       <c r="R3">
-        <v>88.72526247457</v>
+        <v>180.55213555842</v>
       </c>
       <c r="S3">
-        <v>0.001742543709631163</v>
+        <v>0.006183069273582332</v>
       </c>
       <c r="T3">
-        <v>0.001742543709631162</v>
+        <v>0.006183069273582332</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H4">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I4">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J4">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N4">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P4">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q4">
-        <v>0.5411584740150001</v>
+        <v>0.42583566825</v>
       </c>
       <c r="R4">
-        <v>4.870426266135</v>
+        <v>3.83252101425</v>
       </c>
       <c r="S4">
-        <v>9.565404955221653E-05</v>
+        <v>0.0001312459852677864</v>
       </c>
       <c r="T4">
-        <v>9.565404955221651E-05</v>
+        <v>0.0001312459852677864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.59758166666667</v>
+        <v>52.08999</v>
       </c>
       <c r="H5">
-        <v>76.792745</v>
+        <v>156.26997</v>
       </c>
       <c r="I5">
-        <v>0.7690757955240869</v>
+        <v>0.9401105828221099</v>
       </c>
       <c r="J5">
-        <v>0.7690757955240868</v>
+        <v>0.9401105828221098</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N5">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P5">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q5">
-        <v>2716.353599502105</v>
+        <v>3026.40065503533</v>
       </c>
       <c r="R5">
-        <v>24447.18239551894</v>
+        <v>27237.60589531797</v>
       </c>
       <c r="S5">
-        <v>0.4801370287715646</v>
+        <v>0.9327610752230268</v>
       </c>
       <c r="T5">
-        <v>0.4801370287715645</v>
+        <v>0.9327610752230268</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>1.637574</v>
       </c>
       <c r="I6">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J6">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N6">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P6">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q6">
-        <v>34.636651367794</v>
+        <v>0.03519674188733334</v>
       </c>
       <c r="R6">
-        <v>311.729862310146</v>
+        <v>0.316770676986</v>
       </c>
       <c r="S6">
-        <v>0.006122302662428567</v>
+        <v>1.084791954183381E-05</v>
       </c>
       <c r="T6">
-        <v>0.006122302662428566</v>
+        <v>1.08479195418338E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.637574</v>
       </c>
       <c r="I7">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J7">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.155386</v>
       </c>
       <c r="O7">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P7">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q7">
         <v>0.2102255637293333</v>
@@ -883,10 +883,10 @@
         <v>1.892030073564</v>
       </c>
       <c r="S7">
-        <v>3.715903465562458E-05</v>
+        <v>6.479321319775841E-05</v>
       </c>
       <c r="T7">
-        <v>3.715903465562458E-05</v>
+        <v>6.479321319775843E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,40 +915,40 @@
         <v>1.637574</v>
       </c>
       <c r="I8">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J8">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N8">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P8">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q8">
-        <v>0.011539983978</v>
+        <v>0.00446238915</v>
       </c>
       <c r="R8">
-        <v>0.103859855802</v>
+        <v>0.04016150235</v>
       </c>
       <c r="S8">
-        <v>2.039783635048095E-06</v>
+        <v>1.375344303700257E-06</v>
       </c>
       <c r="T8">
-        <v>2.039783635048095E-06</v>
+        <v>1.375344303700257E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.637574</v>
       </c>
       <c r="I9">
-        <v>0.01640022800043886</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="J9">
-        <v>0.01640022800043885</v>
+        <v>0.009851545038079508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N9">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P9">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q9">
-        <v>57.92513380464599</v>
+        <v>31.714058857686</v>
       </c>
       <c r="R9">
-        <v>521.3262042418139</v>
+        <v>285.426529719174</v>
       </c>
       <c r="S9">
-        <v>0.01023872651971962</v>
+        <v>0.009774528561036217</v>
       </c>
       <c r="T9">
-        <v>0.01023872651971961</v>
+        <v>0.009774528561036217</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H10">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I10">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J10">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N10">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P10">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q10">
-        <v>80.08723326422933</v>
+        <v>0.1124756438805556</v>
       </c>
       <c r="R10">
-        <v>720.7850993780639</v>
+        <v>1.012280794925</v>
       </c>
       <c r="S10">
-        <v>0.01415605325796704</v>
+        <v>3.466590001818663E-05</v>
       </c>
       <c r="T10">
-        <v>0.01415605325796704</v>
+        <v>3.466590001818661E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H11">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I11">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J11">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.155386</v>
       </c>
       <c r="O11">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P11">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q11">
-        <v>0.4860857818417778</v>
+        <v>0.6718023991055556</v>
       </c>
       <c r="R11">
-        <v>4.374772036575999</v>
+        <v>6.04622159195</v>
       </c>
       <c r="S11">
-        <v>8.591951469955641E-05</v>
+        <v>0.0002070549142541709</v>
       </c>
       <c r="T11">
-        <v>8.591951469955641E-05</v>
+        <v>0.0002070549142541709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H12">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I12">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J12">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N12">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P12">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q12">
-        <v>0.026682873552</v>
+        <v>0.014260129375</v>
       </c>
       <c r="R12">
-        <v>0.240145861968</v>
+        <v>0.128341164375</v>
       </c>
       <c r="S12">
-        <v>4.716409391138517E-06</v>
+        <v>4.39508681261807E-06</v>
       </c>
       <c r="T12">
-        <v>4.716409391138517E-06</v>
+        <v>4.395086812618069E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.262138666666667</v>
+        <v>1.744358333333333</v>
       </c>
       <c r="H13">
-        <v>3.786416</v>
+        <v>5.233075</v>
       </c>
       <c r="I13">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="J13">
-        <v>0.03792078141476946</v>
+        <v>0.03148185917103467</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N13">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P13">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q13">
-        <v>133.935109766064</v>
+        <v>101.346289423675</v>
       </c>
       <c r="R13">
-        <v>1205.415987894576</v>
+        <v>912.1166048130751</v>
       </c>
       <c r="S13">
-        <v>0.02367409223271173</v>
+        <v>0.0312357432699497</v>
       </c>
       <c r="T13">
-        <v>0.02367409223271173</v>
+        <v>0.03123574326994969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H14">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I14">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J14">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>63.45359300000001</v>
+        <v>0.06447966666666667</v>
       </c>
       <c r="N14">
-        <v>190.360779</v>
+        <v>0.193439</v>
       </c>
       <c r="O14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643723</v>
       </c>
       <c r="P14">
-        <v>0.3733059480797913</v>
+        <v>0.001101138907643722</v>
       </c>
       <c r="Q14">
-        <v>372.9791620941166</v>
+        <v>0.06629530661388891</v>
       </c>
       <c r="R14">
-        <v>3356.81245884705</v>
+        <v>0.5966577595250001</v>
       </c>
       <c r="S14">
-        <v>0.06592702316605675</v>
+        <v>2.043274785066069E-05</v>
       </c>
       <c r="T14">
-        <v>0.06592702316605675</v>
+        <v>2.043274785066068E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H15">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I15">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J15">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.155386</v>
       </c>
       <c r="O15">
-        <v>0.002265763296377967</v>
+        <v>0.00657695954769643</v>
       </c>
       <c r="P15">
-        <v>0.002265763296377967</v>
+        <v>0.006576959547696431</v>
       </c>
       <c r="Q15">
-        <v>2.263779883855555</v>
+        <v>0.3959732480388889</v>
       </c>
       <c r="R15">
-        <v>20.3740189547</v>
+        <v>3.56375923235</v>
       </c>
       <c r="S15">
-        <v>0.0004001410373916239</v>
+        <v>0.0001220421466621697</v>
       </c>
       <c r="T15">
-        <v>0.0004001410373916238</v>
+        <v>0.0001220421466621697</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H16">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I16">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J16">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.021141</v>
+        <v>0.008175</v>
       </c>
       <c r="N16">
-        <v>0.06342300000000001</v>
+        <v>0.024525</v>
       </c>
       <c r="O16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="P16">
-        <v>0.0001243753217939112</v>
+        <v>0.0001396069650378791</v>
       </c>
       <c r="Q16">
-        <v>0.12426644565</v>
+        <v>0.008405194375000001</v>
       </c>
       <c r="R16">
-        <v>1.11839801085</v>
+        <v>0.07564674937500002</v>
       </c>
       <c r="S16">
-        <v>2.196507921550803E-05</v>
+        <v>2.590548653774334E-06</v>
       </c>
       <c r="T16">
-        <v>2.196507921550803E-05</v>
+        <v>2.590548653774334E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.877983333333333</v>
+        <v>1.028158333333334</v>
       </c>
       <c r="H17">
-        <v>17.63395</v>
+        <v>3.084475</v>
       </c>
       <c r="I17">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877595</v>
       </c>
       <c r="J17">
-        <v>0.1766031950607049</v>
+        <v>0.01855601296877594</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>106.117587</v>
+        <v>58.099467</v>
       </c>
       <c r="N17">
-        <v>318.352761</v>
+        <v>174.298401</v>
       </c>
       <c r="O17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="P17">
-        <v>0.6243039133020368</v>
+        <v>0.992182294579622</v>
       </c>
       <c r="Q17">
-        <v>623.75740775955</v>
+        <v>59.73545115827501</v>
       </c>
       <c r="R17">
-        <v>5613.816669835949</v>
+        <v>537.619060424475</v>
       </c>
       <c r="S17">
-        <v>0.110254065778041</v>
+        <v>0.01841094752560934</v>
       </c>
       <c r="T17">
-        <v>0.110254065778041</v>
+        <v>0.01841094752560934</v>
       </c>
     </row>
   </sheetData>
